--- a/report.xlsx
+++ b/report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -523,7 +523,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -535,979 +535,979 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>05</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>05</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>05</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>43</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>05</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>79</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1519,7 +1519,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1531,1171 +1531,1171 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2707,7 +2707,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2719,7 +2719,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2731,7 +2731,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2743,7 +2743,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2755,7 +2755,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2767,7 +2767,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2779,7 +2779,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2791,7 +2791,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2803,7 +2803,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2815,7 +2815,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2827,7 +2827,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2839,7 +2839,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2851,7 +2851,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2863,7 +2863,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2875,7 +2875,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2887,7 +2887,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2899,7 +2899,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2911,7 +2911,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2923,7 +2923,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2935,271 +2935,271 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3211,7 +3211,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3223,7 +3223,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3235,7 +3235,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3247,7 +3247,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3259,7 +3259,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3271,7 +3271,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3283,7 +3283,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3295,634 +3295,130 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
         <is>
           <t>01</t>
         </is>
@@ -3939,7 +3435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4060,15 +3556,11 @@
         <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>01 02 03 04 05 06 07 08 09 10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29 30 31 32 33 34 35 36 37 38 39 40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82</t>
-        </is>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4166,15 +3658,11 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -4433,15 +3921,15 @@
         <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>02 05 06 07 08 09 10</t>
+          <t>02</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="28">
@@ -4573,165 +4061,165 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>01 02 03 04 05 06 07 08 09 10 11 12 13 14 15 16 17 18 19 20 21</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>02 05</t>
+          <t>01</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>01 02</t>
+          <t>02 05</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01 02</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01 02 03 04 05 06 07 08 09 10 11 12 13 14 15 16 17 18 19 20 22 23 24 25 26 27</t>
+          <t>07</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>01 02 03 04 05 06 07 08 09 10 11 12 13 14 15 16</t>
+          <t>01 02 03 04 05 06 07 08 09 10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 26 27</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>01 02 03 04 05 06 07 08</t>
+          <t>01 02 03 04 05 06 07 08 09 10 11 12 13 14 15 16 17 18 19 20 22 23 24 25 26 27</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>01 02 03 04 05 06 07 08 09 10</t>
+          <t>01 02 03 04 05 06 07 08 09 10 11 12 13 14 15 16</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -4741,21 +4229,63 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>01 02 03 04 05 06 07 08</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>01 02 03 04 05 06 07 08 09 10</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>01</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="E44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
@@ -4815,7 +4345,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
@@ -4832,7 +4362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:C544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6978,7 +6508,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6525,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7012,7 +6542,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7029,7 +6559,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7046,7 +6576,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7063,7 +6593,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7080,7 +6610,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7097,7 +6627,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7114,7 +6644,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7131,7 +6661,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7148,7 +6678,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7165,7 +6695,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7182,7 +6712,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7199,7 +6729,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7216,7 +6746,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7233,7 +6763,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7250,7 +6780,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7267,7 +6797,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7284,7 +6814,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7301,7 +6831,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7318,7 +6848,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7335,7 +6865,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7352,7 +6882,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7369,7 +6899,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7386,7 +6916,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7403,7 +6933,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7420,7 +6950,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7437,7 +6967,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7454,7 +6984,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7001,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7018,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7505,7 +7035,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7052,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7069,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7086,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7103,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7590,7 +7120,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7137,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7624,7 +7154,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7171,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7188,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7675,7 +7205,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7222,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7709,7 +7239,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7256,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7273,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7290,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7307,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7794,7 +7324,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7341,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7358,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7375,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7392,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7879,7 +7409,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7426,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7443,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7460,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7477,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7964,7 +7494,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7511,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7998,7 +7528,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8015,7 +7545,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8032,7 +7562,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8049,7 +7579,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8066,7 +7596,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8083,7 +7613,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8100,7 +7630,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8117,7 +7647,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8134,7 +7664,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8151,7 +7681,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8168,7 +7698,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8185,7 +7715,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8202,7 +7732,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8219,7 +7749,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8236,7 +7766,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8253,7 +7783,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8270,7 +7800,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8287,7 +7817,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8304,7 +7834,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8321,7 +7851,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8338,7 +7868,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8355,7 +7885,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8446,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9596,7 +9126,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9143,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9160,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9177,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9664,7 +9194,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9211,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11864,12 +11394,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>3401</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11881,46 +11411,46 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11932,34 +11462,34 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>3306</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11501,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11983,63 +11513,63 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>3506</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>3601</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -12051,12 +11581,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>3602</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -12073,29 +11603,29 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>3314</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12107,75 +11637,75 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>3316</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3318</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -12187,34 +11717,34 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>3320</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12226,7 +11756,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>3901</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -12243,12 +11773,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12260,12 +11790,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12277,7 +11807,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -12294,12 +11824,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12311,24 +11841,24 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -12345,12 +11875,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12362,12 +11892,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12379,12 +11909,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12396,7 +11926,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>3911</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12413,7 +11943,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12425,17 +11955,17 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12447,29 +11977,29 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>核补地形</t>
+          <t>道路抄平</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12481,12 +12011,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>3916</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12498,12 +12028,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>3917</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12515,12 +12045,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12062,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>3919</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12549,12 +12079,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12566,7 +12096,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12583,7 +12113,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12600,7 +12130,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12617,7 +12147,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12634,7 +12164,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12651,7 +12181,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>3926</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12668,7 +12198,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>3927</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12685,7 +12215,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12702,7 +12232,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12719,7 +12249,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12736,7 +12266,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>4004</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12753,7 +12283,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12770,7 +12300,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12787,7 +12317,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12804,7 +12334,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12821,7 +12351,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12838,7 +12368,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12855,7 +12385,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>4011</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12872,7 +12402,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>4012</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12889,7 +12419,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12906,7 +12436,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>4014</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12923,7 +12453,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>4015</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12940,7 +12470,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12957,7 +12487,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12974,7 +12504,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>4102</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12991,12 +12521,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>4103</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -13008,7 +12538,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>4104</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -13025,7 +12555,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -13042,7 +12572,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -13059,7 +12589,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>4107</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13076,7 +12606,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13093,7 +12623,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13110,7 +12640,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13127,7 +12657,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>4203</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13144,7 +12674,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13161,7 +12691,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13178,7 +12708,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13195,7 +12725,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>4207</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13212,7 +12742,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>4208</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13229,7 +12759,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13246,7 +12776,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13263,10 +12793,826 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
+          <t>3914</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>3919</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>3920</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>3921</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>3922</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>3925</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>3926</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>4012</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>4013</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>4014</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>4015</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>4016</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>4104</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>4106</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>4107</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>4206</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>4207</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>4208</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>核补地形</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
           <t>4301</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C544" t="inlineStr">
         <is>
           <t>No</t>
         </is>
